--- a/parttime.xlsx
+++ b/parttime.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,29 @@
   </si>
   <si>
     <t>新网页保存url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个学生作业爬虫</t>
+    <rPh sb="1" eb="2">
+      <t>g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -825,7 +848,7 @@
       <c r="E8">
         <v>600</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>480</v>
       </c>
       <c r="H8" t="s">
@@ -833,9 +856,6 @@
       </c>
       <c r="I8">
         <v>1259181682</v>
-      </c>
-      <c r="K8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -931,8 +951,11 @@
       <c r="E13">
         <v>20</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -948,8 +971,11 @@
       <c r="E14">
         <v>20</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -968,6 +994,9 @@
       <c r="F15" s="6">
         <v>240</v>
       </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16">
@@ -1141,6 +1170,29 @@
         <v>208</v>
       </c>
       <c r="G23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>7754</v>
+      </c>
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>105</v>
+      </c>
+      <c r="F24" s="6">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
         <v>26</v>
       </c>
     </row>

--- a/parttime.xlsx
+++ b/parttime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="19400" windowHeight="7620"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="24500" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,92 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58同城的自动点击</t>
+    <rPh sb="2" eb="3">
+      <t>tong'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'd</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dian'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信数据采集</t>
+    <rPh sb="0" eb="1">
+      <t>wei'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人微信</t>
+    <rPh sb="0" eb="1">
+      <t>si'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东批量查询</t>
+    <rPh sb="0" eb="1">
+      <t>jing'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pi'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cha'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日头条视频下载</t>
+    <rPh sb="0" eb="1">
+      <t>jin'r</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou't</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xia'z</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,7 +352,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +363,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
@@ -329,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +442,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -661,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -749,13 +845,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>5000</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="10">
         <v>5000</v>
       </c>
       <c r="G3" s="5"/>
@@ -770,9 +866,9 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="5"/>
       <c r="H4" t="s">
         <v>15</v>
@@ -925,7 +1021,7 @@
       <c r="E12">
         <v>800</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="6">
         <v>640</v>
       </c>
       <c r="G12" t="s">
@@ -1120,7 +1216,7 @@
       <c r="E21">
         <v>120</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="6">
         <v>96</v>
       </c>
       <c r="G21" t="s">
@@ -1194,6 +1290,89 @@
       </c>
       <c r="G24" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>7868</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25">
+        <v>360</v>
+      </c>
+      <c r="F25" s="7">
+        <v>288</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>300</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28">
+        <v>500</v>
+      </c>
+      <c r="F28" s="1">
+        <v>400</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/parttime.xlsx
+++ b/parttime.xlsx
@@ -760,7 +760,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1346,10 +1346,10 @@
         <v>57</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F27" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>

--- a/parttime.xlsx
+++ b/parttime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="24500" windowHeight="11960"/>
+    <workbookView xWindow="4300" yWindow="460" windowWidth="24500" windowHeight="11960"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,78 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>xia'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>facebook爬取</t>
+    <rPh sb="8" eb="9">
+      <t>pa'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服1</t>
+    <rPh sb="0" eb="1">
+      <t>ke'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除图片</t>
+    <rPh sb="0" eb="1">
+      <t>shan'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试代码</t>
+    <rPh sb="0" eb="1">
+      <t>tiao's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服雯雯</t>
+    <rPh sb="0" eb="1">
+      <t>ke'f</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主持2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典翻译</t>
+    <rPh sb="0" eb="1">
+      <t>zi'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fan'y</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1107,7 +1179,7 @@
       <c r="E16">
         <v>400</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="6">
         <v>320</v>
       </c>
       <c r="G16" t="s">
@@ -1348,7 +1420,7 @@
       <c r="E27">
         <v>150</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="6">
         <v>120</v>
       </c>
       <c r="G27" t="s">
@@ -1373,6 +1445,98 @@
       </c>
       <c r="G28" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>400</v>
+      </c>
+      <c r="F29" s="1">
+        <v>320</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29">
+        <v>963082268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30" s="6">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+      <c r="F31" s="6">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31">
+        <v>1920269216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32">
+        <v>580</v>
+      </c>
+      <c r="F32" s="1">
+        <v>406</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I32">
+        <v>626425754</v>
       </c>
     </row>
   </sheetData>

--- a/parttime.xlsx
+++ b/parttime.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="12月" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,13 +418,301 @@
       <t>fan'y</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo网站爬虫</t>
+    <rPh sb="3" eb="4">
+      <t>wang'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人QQ</t>
+    <rPh sb="0" eb="1">
+      <t>si'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊猫头像那个</t>
+    <rPh sb="0" eb="1">
+      <t>xiong'mao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tou'x</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>na'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊小爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>ya'ma'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头像客服4</t>
+    <rPh sb="0" eb="1">
+      <t>bai'tou'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经打款</t>
+    <rPh sb="0" eb="1">
+      <t>yi'j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>da'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气数据采集</t>
+    <rPh sb="0" eb="1">
+      <t>tian'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焚烧厂数据采集</t>
+    <rPh sb="0" eb="1">
+      <t>fen'sao'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他群客服</t>
+    <rPh sb="0" eb="1">
+      <t>qi't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qun</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tk 留言板</t>
+    <rPh sb="3" eb="4">
+      <t>liu'yan'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fb 三大社交采集</t>
+    <rPh sb="3" eb="4">
+      <t>san'd</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she'jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>cai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前的课程设计</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke'c's'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大橘为重</t>
+    <rPh sb="0" eb="1">
+      <t>da'ju'wei'z</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ju'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知网采集</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩票中奖提示声音</t>
+    <rPh sb="0" eb="1">
+      <t>cai'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhogn'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti's</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sheng'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴肉</t>
+    <rPh sb="0" eb="1">
+      <t>lv'rou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <rPh sb="0" eb="1">
+      <t>wei'wan'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号登录</t>
+    <rPh sb="0" eb="1">
+      <t>zhang'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <rPh sb="0" eb="1">
+      <t>feng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票小爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>gu'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生爬虫 毕设</t>
+    <rPh sb="0" eb="1">
+      <t>xue's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bi'she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>私人QQ</t>
+    <rPh sb="0" eb="1">
+      <t>si'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Je t'aime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,8 +735,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +785,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -489,12 +801,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -516,7 +840,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -529,8 +856,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -829,14 +1160,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -917,13 +1249,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>5000</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="11">
         <v>5000</v>
       </c>
       <c r="G3" s="5"/>
@@ -938,9 +1270,9 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="5"/>
       <c r="H4" t="s">
         <v>15</v>
@@ -1093,7 +1425,7 @@
       <c r="E12">
         <v>800</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>640</v>
       </c>
       <c r="G12" t="s">
@@ -1225,7 +1557,7 @@
       <c r="E18">
         <v>160</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>128</v>
       </c>
       <c r="G18" t="s">
@@ -1245,7 +1577,7 @@
       <c r="E19">
         <v>160</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>128</v>
       </c>
       <c r="G19" t="s">
@@ -1265,7 +1597,7 @@
       <c r="E20">
         <v>260</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>208</v>
       </c>
       <c r="G20" t="s">
@@ -1288,7 +1620,7 @@
       <c r="E21">
         <v>120</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>96</v>
       </c>
       <c r="G21" t="s">
@@ -1334,7 +1666,7 @@
       <c r="E23">
         <v>260</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>208</v>
       </c>
       <c r="G23" t="s">
@@ -1357,7 +1689,7 @@
       <c r="E24">
         <v>105</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>84</v>
       </c>
       <c r="G24" t="s">
@@ -1380,7 +1712,7 @@
       <c r="E25">
         <v>360</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>288</v>
       </c>
       <c r="G25" t="s">
@@ -1446,6 +1778,9 @@
       <c r="G28" t="s">
         <v>30</v>
       </c>
+      <c r="H28" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1460,11 +1795,14 @@
       <c r="E29">
         <v>400</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="6">
         <v>320</v>
       </c>
       <c r="G29" t="s">
         <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
       </c>
       <c r="I29">
         <v>963082268</v>
@@ -1537,6 +1875,233 @@
       </c>
       <c r="I32">
         <v>626425754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>188224912</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34">
+        <v>300</v>
+      </c>
+      <c r="F34" s="1">
+        <v>240</v>
+      </c>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34">
+        <v>343050108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35" s="6">
+        <v>210</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36">
+        <v>240</v>
+      </c>
+      <c r="F36" s="6">
+        <v>192</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36">
+        <v>117049114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37">
+        <v>300</v>
+      </c>
+      <c r="F37" s="1">
+        <v>240</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>117049114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38">
+        <v>850</v>
+      </c>
+      <c r="F38" s="1">
+        <v>595</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="3">
+        <v>38</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="3">
+        <v>150</v>
+      </c>
+      <c r="F39" s="3">
+        <v>150</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40">
+        <v>400</v>
+      </c>
+      <c r="F40" s="1">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41">
+        <v>300</v>
+      </c>
+      <c r="F41" s="1">
+        <v>300</v>
+      </c>
+      <c r="G41" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42">
+        <v>200</v>
+      </c>
+      <c r="F42" s="1">
+        <v>200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42">
+        <v>136244942</v>
+      </c>
+      <c r="I42">
+        <v>136244942</v>
       </c>
     </row>
   </sheetData>
@@ -1553,12 +2118,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8523</v>
+      </c>
+      <c r="D2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>180</v>
+      </c>
+      <c r="F2" s="1">
+        <v>144</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3">
+        <v>550</v>
+      </c>
+      <c r="F3">
+        <v>550</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3">
+        <v>1595044018</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/parttime.xlsx
+++ b/parttime.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -706,6 +706,39 @@
   </si>
   <si>
     <t>Je t'aime</t>
+  </si>
+  <si>
+    <t>收了120定金</t>
+    <rPh sb="0" eb="1">
+      <t>shou</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>l</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ding'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安居客采集</t>
+    <rPh sb="0" eb="1">
+      <t>an'ju'k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏尔康微信</t>
+    <rPh sb="0" eb="1">
+      <t>xia'er'k</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1160,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1916,7 +1949,7 @@
       <c r="E34">
         <v>300</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="6">
         <v>240</v>
       </c>
       <c r="G34" t="s">
@@ -2102,6 +2135,26 @@
       </c>
       <c r="I42">
         <v>136244942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2000</v>
+      </c>
+      <c r="G43" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2174,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2212,6 +2265,9 @@
       </c>
       <c r="I3">
         <v>1595044018</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/parttime.xlsx
+++ b/parttime.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="460" windowWidth="24500" windowHeight="11960"/>
+    <workbookView xWindow="4300" yWindow="460" windowWidth="24500" windowHeight="11960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -738,6 +738,24 @@
     <rPh sb="3" eb="4">
       <t>wei'x</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoho注册机</t>
+    <rPh sb="4" eb="5">
+      <t>zhu'c'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅哥</t>
+    <rPh sb="0" eb="1">
+      <t>shuai'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,7 +805,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +842,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -851,7 +881,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -879,6 +909,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -887,6 +920,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1195,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1282,13 +1318,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>5000</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="12">
         <v>5000</v>
       </c>
       <c r="G3" s="5"/>
@@ -1303,9 +1339,9 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="5"/>
       <c r="H4" t="s">
         <v>15</v>
@@ -1544,7 +1580,7 @@
       <c r="E16">
         <v>400</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>320</v>
       </c>
       <c r="G16" t="s">
@@ -1673,7 +1709,7 @@
       <c r="E22">
         <v>100</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>80</v>
       </c>
       <c r="G22" t="s">
@@ -1828,7 +1864,7 @@
       <c r="E29">
         <v>400</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>320</v>
       </c>
       <c r="G29" t="s">
@@ -1854,7 +1890,7 @@
       <c r="E30">
         <v>50</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>40</v>
       </c>
       <c r="G30" t="s">
@@ -1897,7 +1933,7 @@
       <c r="E32">
         <v>580</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="3">
         <v>406</v>
       </c>
       <c r="G32" t="s">
@@ -1992,7 +2028,7 @@
       <c r="E36">
         <v>240</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <v>192</v>
       </c>
       <c r="G36" t="s">
@@ -2038,7 +2074,7 @@
       <c r="E38">
         <v>850</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="3">
         <v>595</v>
       </c>
       <c r="G38" t="s">
@@ -2081,7 +2117,7 @@
       <c r="E40">
         <v>400</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="6">
         <v>320</v>
       </c>
       <c r="G40" t="s">
@@ -2124,7 +2160,7 @@
       <c r="E42">
         <v>200</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="6">
         <v>200</v>
       </c>
       <c r="G42" t="s">
@@ -2150,7 +2186,7 @@
       <c r="E43">
         <v>2000</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
       <c r="G43" t="s">
@@ -2171,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2254,7 +2290,7 @@
       <c r="E3">
         <v>550</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>550</v>
       </c>
       <c r="G3" t="s">
@@ -2266,8 +2302,28 @@
       <c r="I3">
         <v>1595044018</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="9" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="13">
+        <v>400</v>
+      </c>
+      <c r="F4" s="13">
+        <v>320</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/parttime.xlsx
+++ b/parttime.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="460" windowWidth="24500" windowHeight="11960" activeTab="1"/>
+    <workbookView xWindow="6800" yWindow="5660" windowWidth="27120" windowHeight="15160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="11月" sheetId="1" r:id="rId1"/>
     <sheet name="12月" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1月" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="224">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,16 +491,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经打款</t>
-    <rPh sb="0" eb="1">
-      <t>yi'j</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>da'k</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>28号</t>
     <rPh sb="2" eb="3">
       <t>hao</t>
@@ -634,13 +624,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未完成</t>
-    <rPh sb="0" eb="1">
-      <t>wei'wan'c</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账号登录</t>
     <rPh sb="0" eb="1">
       <t>zhang'h</t>
@@ -756,6 +739,1350 @@
   </si>
   <si>
     <t>1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼爬虫+可视化</t>
+    <rPh sb="0" eb="1">
+      <t>dou'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'shi'hua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小python作业</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel处理</t>
+    <rPh sb="5" eb="6">
+      <t>chu'l</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干支数字作业</t>
+    <rPh sb="0" eb="1">
+      <t>gan</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒滴</t>
+    <rPh sb="0" eb="1">
+      <t>miao'di</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>di'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服3</t>
+    <rPh sb="0" eb="1">
+      <t>ke'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程浏览器自动点击</t>
+    <rPh sb="0" eb="1">
+      <t>duo'xian'c</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>liu'l'q</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zi'd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dian'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP服务器弱口令扫描技术设计与实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成语搜索</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sou's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf处理</t>
+    <rPh sb="3" eb="4">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词频统计</t>
+    <rPh sb="0" eb="1">
+      <t>ci'p'tong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png2char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词频统计</t>
+    <rPh sb="0" eb="1">
+      <t>ci'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公式计算</t>
+    <rPh sb="0" eb="1">
+      <t>gong's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器自动点击</t>
+    <rPh sb="0" eb="1">
+      <t>liu'aln'q</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'd</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dian'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小爬虫作业两个</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>liang'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国专利局爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>mei'guo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhuan'li'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服4</t>
+    <rPh sb="0" eb="1">
+      <t>ke'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒滴</t>
+    <rPh sb="0" eb="1">
+      <t>miao'd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团爬虫作业</t>
+    <rPh sb="0" eb="1">
+      <t>mei't</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel2word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰陵伟</t>
+    <rPh sb="0" eb="1">
+      <t>lan'ling'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel查询扫描</t>
+    <rPh sb="5" eb="6">
+      <t>cha'x</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>sao'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域名扫描</t>
+    <rPh sb="0" eb="1">
+      <t>yu'm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sao'm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐网站作业爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>yin'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang'z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhu'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词云</t>
+    <rPh sb="0" eb="1">
+      <t>ci'yun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5道作业题</t>
+    <rPh sb="1" eb="2">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>xin'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小作业爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气数据爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>tian'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>17号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博吴亦凡爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>wei'bo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu'yi'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行的注册机</t>
+    <rPh sb="0" eb="1">
+      <t>gong'shang'yin'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>d</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhu'c'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帅哥</t>
+    <rPh sb="0" eb="1">
+      <t>shuai'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代考试</t>
+    <rPh sb="0" eb="1">
+      <t>dai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>kao's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博图片数据爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>wei'bo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片下载GUI</t>
+    <rPh sb="0" eb="1">
+      <t>tu'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xia'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫眼电影爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>mao'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生作业</t>
+    <rPh sb="0" eb="1">
+      <t>xue's</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智联招聘作业爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博学生作业爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>wei'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红楼梦词频统计</t>
+    <rPh sb="0" eb="1">
+      <t>hong'lou'm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘爬虫作业</t>
+    <rPh sb="0" eb="1">
+      <t>zhao'p</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jupyter爬虫</t>
+    <rPh sb="7" eb="8">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录拿废水废气数据</t>
+    <rPh sb="0" eb="1">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>na</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fei'shui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fei'q</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚球数据爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>gun'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画花作业</t>
+    <rPh sb="0" eb="1">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱匹配作业</t>
+    <rPh sb="0" eb="1">
+      <t>you'x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pi'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词频r*f公式分析</t>
+    <rPh sb="0" eb="1">
+      <t>ci'p</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fen'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppt作业好几个课件</t>
+    <rPh sb="3" eb="4">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji'ge</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ke'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档批量下载</t>
+    <rPh sb="0" eb="1">
+      <t>wen'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pi'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xia'z</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途牛学生作业爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>tu'niu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xue's</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大金的自动登录退出</t>
+    <rPh sb="0" eb="1">
+      <t>da'jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>d</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi'd</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng'l</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tui'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻国家食品爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>xin'wen</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guo'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'p</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻词云，词频统计pyechart</t>
+    <rPh sb="0" eb="1">
+      <t>xin'w</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ci'yun</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ci'pin</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tong'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气数据爬虫可视化</t>
+    <rPh sb="0" eb="1">
+      <t>tian'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ke'shi'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹姆斯得分数据可视化</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'mo's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>de'fen</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke'shi'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州园林爬虫作业</t>
+    <rPh sb="0" eb="1">
+      <t>su'z</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆瓣电影作业爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>dou'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴吧爬虫作业</t>
+    <rPh sb="0" eb="1">
+      <t>tie'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒滴</t>
+    <rPh sb="0" eb="1">
+      <t>miao'di</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF YOU的爬虫两个</t>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>liang'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词云图</t>
+    <rPh sb="0" eb="1">
+      <t>ci'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词云图发pdf</t>
+    <rPh sb="0" eb="1">
+      <t>ci'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词云图发pdf私人第二份</t>
+    <rPh sb="0" eb="1">
+      <t>ci'yun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fa</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si'ren</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>di'er'f</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王灿</t>
+    <rPh sb="0" eb="1">
+      <t>wang'can</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if you私人QQ</t>
+    <rPh sb="6" eb="7">
+      <t>si'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当当作业爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>dang'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆瓣图片爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>dou'b</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>tu'p</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹夫 的淘宝爬虫作业</t>
+    <rPh sb="0" eb="1">
+      <t>pi'fu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tao'b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头像客服4</t>
+    <rPh sb="0" eb="1">
+      <t>bai'tou'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ke'f's</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml处理</t>
+    <rPh sb="3" eb="4">
+      <t>chu'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个爬虫全做</t>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>quan'zuo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武大新闻爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>wu'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10个新闻爬虫</t>
+    <rPh sb="2" eb="3">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xin'w</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给学生画个图</t>
+    <rPh sb="0" eb="1">
+      <t>gei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xue's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hua</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ音乐爬虫</t>
+    <rPh sb="2" eb="3">
+      <t>yin'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者荣耀英雄采集</t>
+    <rPh sb="0" eb="1">
+      <t>wang'z'r'y</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ying'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程游记采集</t>
+    <rPh sb="0" eb="1">
+      <t>xie'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧作业词性分析</t>
+    <rPh sb="0" eb="1">
+      <t>jiu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zuo'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ci'xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fen'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军事网采集统计词</t>
+    <rPh sb="5" eb="6">
+      <t>tong'j</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ci</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10号客服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>excel2img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画图</t>
+    <rPh sb="0" eb="1">
+      <t>hua'tu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个爬虫</t>
+    <rPh sb="1" eb="2">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意内容采集加可视化作业</t>
+    <rPh sb="0" eb="1">
+      <t>ren'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nei'r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'j</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ke'shi'h</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴阳师爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yang's</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业查询GUI</t>
+    <rPh sb="0" eb="1">
+      <t>qi'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cha'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傻逼来的</t>
+    <rPh sb="0" eb="1">
+      <t>sha'bi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎教程智联招聘爬虫可视化</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi'l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhao'p</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ke'shi'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python连接数据库</t>
+    <rPh sb="6" eb="7">
+      <t>lian'j</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shu'j'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气爬虫可视化作业</t>
+    <rPh sb="0" eb="1">
+      <t>tian'q</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke'shi'h</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博人物关系分析</t>
+    <rPh sb="0" eb="1">
+      <t>wei'bo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ren'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan'x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fen'x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当当网爬虫可视化</t>
+    <rPh sb="0" eb="1">
+      <t>dang'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ke'shi'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>php连接数据库</t>
+    <rPh sb="3" eb="4">
+      <t>lian'j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shu'j'k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妞妞</t>
+    <rPh sb="0" eb="1">
+      <t>niu'niu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31号</t>
+    <rPh sb="2" eb="3">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程酒店爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>xie'c</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiu'd</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生word5题作业</t>
+    <rPh sb="0" eb="1">
+      <t>xue's</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ti</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪微博爬虫作业</t>
+    <rPh sb="0" eb="1">
+      <t>xin'l</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei'bo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>pa'c</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zuo'y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月1号收货</t>
+    <rPh sb="1" eb="2">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shou'huo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小说爬虫</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'shuo</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pa'c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号</t>
+    <rPh sb="1" eb="2">
+      <t>hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词云</t>
+    <rPh sb="0" eb="1">
+      <t>ci'y</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +2132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +2181,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -864,7 +2197,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,8 +2213,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +2305,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -921,16 +2320,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,6 +2660,7 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -1318,13 +2738,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>5000</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="14">
         <v>5000</v>
       </c>
       <c r="G3" s="5"/>
@@ -1339,9 +2759,9 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="5"/>
       <c r="H4" t="s">
         <v>15</v>
@@ -1468,7 +2888,7 @@
       <c r="E11">
         <v>600</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>600</v>
       </c>
       <c r="G11" t="s">
@@ -1480,7 +2900,7 @@
       <c r="I11" s="3">
         <v>21027264</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1560,7 +2980,7 @@
       <c r="E15">
         <v>300</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>240</v>
       </c>
       <c r="G15" t="s">
@@ -1590,26 +3010,26 @@
         <v>3518037309</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>240</v>
       </c>
       <c r="F17" s="1">
         <v>168</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <v>1351347187</v>
       </c>
     </row>
@@ -1821,7 +3241,7 @@
       <c r="E27">
         <v>150</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>120</v>
       </c>
       <c r="G27" t="s">
@@ -1841,15 +3261,13 @@
       <c r="E28">
         <v>500</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="3">
         <v>400</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>76</v>
-      </c>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1910,7 +3328,7 @@
       <c r="E31">
         <v>50</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>40</v>
       </c>
       <c r="G31" t="s">
@@ -1985,7 +3403,7 @@
       <c r="E34">
         <v>300</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>240</v>
       </c>
       <c r="G34" t="s">
@@ -1997,18 +3415,18 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35">
         <v>300</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>210</v>
       </c>
       <c r="G35" t="s">
@@ -2017,13 +3435,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>240</v>
@@ -2032,7 +3450,7 @@
         <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I36">
         <v>117049114</v>
@@ -2040,22 +3458,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37">
         <v>300</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="3">
         <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I37">
         <v>117049114</v>
@@ -2063,13 +3481,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>850</v>
@@ -2083,13 +3501,13 @@
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="3">
         <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="3">
         <v>150</v>
@@ -2098,26 +3516,23 @@
         <v>150</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E40">
         <v>400</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="3">
         <v>320</v>
       </c>
       <c r="G40" t="s">
@@ -2126,13 +3541,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41">
         <v>300</v>
@@ -2141,7 +3556,7 @@
         <v>300</v>
       </c>
       <c r="G41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s">
         <v>56</v>
@@ -2149,22 +3564,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42">
         <v>200</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>200</v>
       </c>
       <c r="G42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H42">
         <v>136244942</v>
@@ -2175,13 +3590,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43">
         <v>2000</v>
@@ -2190,7 +3605,7 @@
         <v>2000</v>
       </c>
       <c r="G43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2207,16 +3622,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2256,7 +3673,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2265,12 +3682,12 @@
         <v>8523</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2">
         <v>180</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>144</v>
       </c>
       <c r="G2" t="s">
@@ -2279,67 +3696,1815 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>550</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="1">
         <v>550</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I3">
         <v>1595044018</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="10">
+        <v>400</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="13">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="13">
-        <v>400</v>
-      </c>
-      <c r="F4" s="13">
-        <v>320</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>103</v>
+      <c r="E5">
+        <v>300</v>
+      </c>
+      <c r="F5" s="3">
+        <v>240</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7" s="3">
+        <v>160</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8">
+        <v>580</v>
+      </c>
+      <c r="F8" s="3">
+        <v>406</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="10">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="10">
+        <v>350</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="6">
+        <v>800</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11" s="3">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>160</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="3">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17">
+        <v>360</v>
+      </c>
+      <c r="F17" s="3">
+        <v>288</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18">
+        <v>360</v>
+      </c>
+      <c r="F18" s="3">
+        <v>288</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19" s="11">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20" s="3">
+        <v>64</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21">
+        <v>520</v>
+      </c>
+      <c r="F21" s="3">
+        <v>416</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22" s="3">
+        <v>40</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>300</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25">
+        <v>188</v>
+      </c>
+      <c r="F25" s="3">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26">
+        <v>120</v>
+      </c>
+      <c r="F26" s="3">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27">
+        <v>240</v>
+      </c>
+      <c r="F27" s="3">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28">
+        <v>80</v>
+      </c>
+      <c r="F28" s="11">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+      <c r="F29" s="3">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30" s="3">
+        <v>210</v>
+      </c>
+      <c r="G30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31" s="3">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32">
+        <v>600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>480</v>
+      </c>
+      <c r="G32" t="s">
+        <v>147</v>
+      </c>
+      <c r="I32">
+        <v>408062635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33">
+        <v>600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>420</v>
+      </c>
+      <c r="G33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E34" s="3">
+        <v>280</v>
+      </c>
+      <c r="F34" s="3">
+        <v>224</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>160</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="3">
+        <v>600</v>
+      </c>
+      <c r="F36" s="3">
+        <v>420</v>
+      </c>
+      <c r="G36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="3">
+        <v>220</v>
+      </c>
+      <c r="F37" s="3">
+        <v>176</v>
+      </c>
+      <c r="G37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="3">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3">
+        <v>64</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>168</v>
+      </c>
+      <c r="E39" s="3">
+        <v>240</v>
+      </c>
+      <c r="F39" s="3">
+        <v>192</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="3">
+        <v>300</v>
+      </c>
+      <c r="F40" s="3">
+        <v>210</v>
+      </c>
+      <c r="G40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="3">
+        <v>360</v>
+      </c>
+      <c r="F41" s="3">
+        <v>288</v>
+      </c>
+      <c r="G41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="3">
+        <v>80</v>
+      </c>
+      <c r="F42" s="3">
+        <v>64</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
+        <v>210</v>
+      </c>
+      <c r="G43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>160</v>
+      </c>
+      <c r="E44" s="3">
+        <v>80</v>
+      </c>
+      <c r="F44" s="3">
+        <v>64</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="3">
+        <v>80</v>
+      </c>
+      <c r="F45" s="3">
+        <v>64</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>162</v>
+      </c>
+      <c r="E46" s="3">
+        <v>50</v>
+      </c>
+      <c r="F46" s="3">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="3">
+        <v>250</v>
+      </c>
+      <c r="F47" s="3">
+        <v>200</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="3">
+        <v>260</v>
+      </c>
+      <c r="F48" s="3">
+        <v>208</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" s="3">
+        <v>20</v>
+      </c>
+      <c r="F49" s="3">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" s="3">
+        <v>220</v>
+      </c>
+      <c r="F50" s="3">
+        <v>176</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="3">
+        <v>245</v>
+      </c>
+      <c r="F51" s="3">
+        <v>196</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="3">
+        <v>260</v>
+      </c>
+      <c r="F52" s="3">
+        <v>208</v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="3">
+        <v>80</v>
+      </c>
+      <c r="F53" s="3">
+        <v>64</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>172</v>
+      </c>
+      <c r="E54" s="3">
+        <v>80</v>
+      </c>
+      <c r="F54" s="3">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="15">
+        <v>54</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="15">
+        <v>500</v>
+      </c>
+      <c r="F55" s="15">
+        <v>0</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="3">
+        <v>120</v>
+      </c>
+      <c r="F56" s="3">
+        <v>96</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="3">
+        <v>160</v>
+      </c>
+      <c r="F57" s="3">
+        <v>128</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="3">
+        <v>150</v>
+      </c>
+      <c r="F58" s="6">
+        <v>120</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
+      </c>
+      <c r="E59" s="3">
+        <v>60</v>
+      </c>
+      <c r="F59" s="3">
+        <v>48</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="6">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="3">
+        <v>80</v>
+      </c>
+      <c r="F61" s="3">
+        <v>64</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="3">
+        <v>80</v>
+      </c>
+      <c r="F62" s="3">
+        <v>64</v>
+      </c>
+      <c r="G62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E63" s="3">
+        <v>220</v>
+      </c>
+      <c r="F63" s="3">
+        <v>154</v>
+      </c>
+      <c r="G63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="10">
+        <v>63</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" s="10">
+        <v>160</v>
+      </c>
+      <c r="F64" s="10">
+        <v>0</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H64" s="10">
+        <v>243803652</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>183</v>
+      </c>
+      <c r="E65" s="3">
+        <v>80</v>
+      </c>
+      <c r="F65" s="3">
+        <v>64</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" s="3">
+        <v>80</v>
+      </c>
+      <c r="F66" s="3">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s">
+        <v>185</v>
+      </c>
+      <c r="H66">
+        <v>931612379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>188</v>
+      </c>
+      <c r="E67" s="3">
+        <v>180</v>
+      </c>
+      <c r="F67" s="3">
+        <v>144</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="3">
+        <v>120</v>
+      </c>
+      <c r="F68" s="3">
+        <v>120</v>
+      </c>
+      <c r="G68" t="s">
+        <v>71</v>
+      </c>
+      <c r="H68">
+        <v>1072783214</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="3">
+        <v>150</v>
+      </c>
+      <c r="F69" s="6">
+        <v>120</v>
+      </c>
+      <c r="G69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" s="3">
+        <v>100</v>
+      </c>
+      <c r="F70" s="3">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>182</v>
+      </c>
+      <c r="E71" s="3">
+        <v>40</v>
+      </c>
+      <c r="F71" s="3">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>193</v>
+      </c>
+      <c r="E72" s="3">
+        <v>60</v>
+      </c>
+      <c r="F72" s="6">
+        <v>48</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
+        <v>194</v>
+      </c>
+      <c r="E73" s="3">
+        <v>80</v>
+      </c>
+      <c r="F73" s="3">
+        <v>64</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D74" t="s">
+        <v>195</v>
+      </c>
+      <c r="E74" s="3">
+        <v>40</v>
+      </c>
+      <c r="F74" s="3">
+        <v>32</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" s="3">
+        <v>80</v>
+      </c>
+      <c r="F75" s="3">
+        <v>64</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>197</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F76" s="1">
+        <v>700</v>
+      </c>
+      <c r="G76" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" s="3">
+        <v>500</v>
+      </c>
+      <c r="F77" s="3">
+        <v>350</v>
+      </c>
+      <c r="G77" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E78" s="15">
+        <v>120</v>
+      </c>
+      <c r="F78" s="15">
+        <v>0</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" s="3">
+        <v>60</v>
+      </c>
+      <c r="F79" s="6">
+        <v>48</v>
+      </c>
+      <c r="G79" t="s">
+        <v>201</v>
+      </c>
+      <c r="I79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>200</v>
+      </c>
+      <c r="E80">
+        <v>100</v>
+      </c>
+      <c r="F80" s="6">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>202</v>
+      </c>
+      <c r="E81">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>240</v>
+      </c>
+      <c r="G81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82">
+        <v>80</v>
+      </c>
+      <c r="F82" s="6">
+        <v>64</v>
+      </c>
+      <c r="G82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83">
+        <v>160</v>
+      </c>
+      <c r="F83" s="6">
+        <v>128</v>
+      </c>
+      <c r="G83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84">
+        <v>800</v>
+      </c>
+      <c r="F84" s="1">
+        <v>640</v>
+      </c>
+      <c r="G84" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>207</v>
+      </c>
+      <c r="E85">
+        <v>800</v>
+      </c>
+      <c r="F85" s="6">
+        <v>640</v>
+      </c>
+      <c r="G85" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86">
+        <v>800</v>
+      </c>
+      <c r="F86" s="1">
+        <v>640</v>
+      </c>
+      <c r="G86" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>210</v>
+      </c>
+      <c r="E87">
+        <v>60</v>
+      </c>
+      <c r="F87" s="6">
+        <v>48</v>
+      </c>
+      <c r="G87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88">
+        <v>120</v>
+      </c>
+      <c r="F88" s="6">
+        <v>96</v>
+      </c>
+      <c r="G88" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89">
+        <v>180</v>
+      </c>
+      <c r="F89" s="1">
+        <v>144</v>
+      </c>
+      <c r="G89" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90">
+        <v>80</v>
+      </c>
+      <c r="F90" s="6">
+        <v>64</v>
+      </c>
+      <c r="G90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91">
+        <v>80</v>
+      </c>
+      <c r="F91" s="6">
+        <v>64</v>
+      </c>
+      <c r="G91" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92">
+        <v>220</v>
+      </c>
+      <c r="F92" s="6">
+        <v>176</v>
+      </c>
+      <c r="G92" t="s">
+        <v>215</v>
+      </c>
+      <c r="H92">
+        <v>3569851892</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E93" s="3">
+        <v>80</v>
+      </c>
+      <c r="F93" s="6">
+        <v>64</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>217</v>
+      </c>
+      <c r="E95">
+        <v>3000</v>
+      </c>
+      <c r="F95" s="1">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
